--- a/projekt_1/UEFAChampionsLeague.xlsx
+++ b/projekt_1/UEFAChampionsLeague.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aleš\Documents\ROM\projekt_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\ROM\projekt_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -121,8 +121,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="#\ &quot;cm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#\ &quot;kg&quot;"/>
+    <numFmt numFmtId="164" formatCode="#\ &quot;cm&quot;"/>
+    <numFmt numFmtId="165" formatCode="#\ &quot;kg&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -156,11 +156,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -176,9 +176,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Officeova tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pisarna">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -216,7 +216,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pisarna">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -288,7 +288,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pisarna">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -441,12 +441,12 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,7 +475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -494,11 +494,17 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
       <c r="I2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -517,11 +523,17 @@
       <c r="F3">
         <v>0</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
       <c r="I3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -543,11 +555,14 @@
       <c r="G4">
         <v>2</v>
       </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
       <c r="I4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -569,11 +584,14 @@
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
       <c r="I5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -595,11 +613,14 @@
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
       <c r="I6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -618,11 +639,17 @@
       <c r="F7">
         <v>1</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
       <c r="I7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -641,11 +668,17 @@
       <c r="F8">
         <v>0</v>
       </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
       <c r="I8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -664,11 +697,17 @@
       <c r="F9">
         <v>0</v>
       </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
       <c r="I9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -690,11 +729,14 @@
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
       <c r="I10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -716,11 +758,14 @@
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
       <c r="I11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -739,11 +784,17 @@
       <c r="F12">
         <v>0</v>
       </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
       <c r="I12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -765,11 +816,14 @@
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
       <c r="I13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -788,11 +842,17 @@
       <c r="F14">
         <v>0</v>
       </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
       <c r="I14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -811,11 +871,17 @@
       <c r="F15">
         <v>0</v>
       </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
       <c r="I15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -837,11 +903,14 @@
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
       <c r="I16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -860,11 +929,17 @@
       <c r="F17">
         <v>0</v>
       </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
       <c r="I17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -883,11 +958,17 @@
       <c r="F18">
         <v>0</v>
       </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
       <c r="I18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -906,11 +987,17 @@
       <c r="F19">
         <v>2</v>
       </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
       <c r="I19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -929,11 +1016,17 @@
       <c r="F20">
         <v>2</v>
       </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
       <c r="I20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -952,11 +1045,17 @@
       <c r="F21">
         <v>1</v>
       </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
       <c r="I21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -974,6 +1073,12 @@
       </c>
       <c r="F22">
         <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
       </c>
       <c r="I22">
         <v>3</v>
